--- a/DW+P5+-+Modele+plan+tests+acceptation (1).xlsx
+++ b/DW+P5+-+Modele+plan+tests+acceptation (1).xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c1e90f85e03f0c95/Documents/OC/Projet 5/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexi\Projets\P5-Dev-Web-Kanap-master\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="193" documentId="11_91AA243AD46ACDB9E5A50D17A2E73107414BF062" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BC6C6B20-8F80-4107-9039-8E66CBD90F68}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{173DC629-C2E2-4260-98E7-3D2EFC6318E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="64">
   <si>
     <t>Fonctionnalité</t>
   </si>
@@ -703,7 +703,7 @@
   </sheetPr>
   <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
       <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
@@ -1053,7 +1053,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" ht="75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="5">
         <v>20</v>
       </c>
@@ -1066,9 +1066,7 @@
       <c r="D21" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="E21" s="12" t="s">
-        <v>5</v>
-      </c>
+      <c r="E21" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/DW+P5+-+Modele+plan+tests+acceptation (1).xlsx
+++ b/DW+P5+-+Modele+plan+tests+acceptation (1).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexi\Projets\P5-Dev-Web-Kanap-master\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{173DC629-C2E2-4260-98E7-3D2EFC6318E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E18E084-E07C-4CC1-9950-64CDC99C42F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="65">
   <si>
     <t>Fonctionnalité</t>
   </si>
@@ -137,9 +137,6 @@
     <t>Le prix des articles ne doit pas être stocké en local.</t>
   </si>
   <si>
-    <t>Ajouter plusieurs produits au panier.</t>
-  </si>
-  <si>
     <t>Le local storage ne renseigne aucun prix de produit.</t>
   </si>
   <si>
@@ -216,6 +213,12 @@
   </si>
   <si>
     <t>Ajouter des produits au panier et modifier manuellement dans le local storage les donnés stockés en y renseignant des donnés invalides (un mauvais id, une couleur inexistante ou une quantité négative par exemple)</t>
+  </si>
+  <si>
+    <t>Ajouter différents produits au panier. Vérifier le total en bas à droite.</t>
+  </si>
+  <si>
+    <t>Ajouter plusieurs produits au panier. Vérifier le local storage.</t>
   </si>
 </sst>
 </file>
@@ -703,8 +706,8 @@
   </sheetPr>
   <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -798,12 +801,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="6">
         <v>5</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C6" s="11" t="s">
         <v>17</v>
@@ -866,7 +869,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="5">
         <v>9</v>
       </c>
@@ -874,7 +877,7 @@
         <v>33</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>20</v>
+        <v>63</v>
       </c>
       <c r="D10" s="11" t="s">
         <v>34</v>
@@ -917,7 +920,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" ht="75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="6">
         <v>12</v>
       </c>
@@ -925,10 +928,10 @@
         <v>36</v>
       </c>
       <c r="C13" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="D13" s="11" t="s">
         <v>37</v>
-      </c>
-      <c r="D13" s="11" t="s">
-        <v>38</v>
       </c>
       <c r="E13" s="12" t="s">
         <v>5</v>
@@ -939,13 +942,13 @@
         <v>13</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C14" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="D14" s="11" t="s">
         <v>39</v>
-      </c>
-      <c r="D14" s="11" t="s">
-        <v>40</v>
       </c>
       <c r="E14" s="12" t="s">
         <v>5</v>
@@ -956,13 +959,13 @@
         <v>14</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E15" s="12" t="s">
         <v>5</v>
@@ -973,13 +976,13 @@
         <v>15</v>
       </c>
       <c r="B16" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="D16" s="11" t="s">
         <v>45</v>
-      </c>
-      <c r="C16" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="D16" s="11" t="s">
-        <v>46</v>
       </c>
       <c r="E16" s="12" t="s">
         <v>5</v>
@@ -990,13 +993,13 @@
         <v>16</v>
       </c>
       <c r="B17" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="D17" s="11" t="s">
         <v>48</v>
-      </c>
-      <c r="C17" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="D17" s="11" t="s">
-        <v>49</v>
       </c>
       <c r="E17" s="12" t="s">
         <v>5</v>
@@ -1007,13 +1010,13 @@
         <v>17</v>
       </c>
       <c r="B18" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="C18" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="C18" s="11" t="s">
+      <c r="D18" s="11" t="s">
         <v>52</v>
-      </c>
-      <c r="D18" s="11" t="s">
-        <v>53</v>
       </c>
       <c r="E18" s="12" t="s">
         <v>5</v>
@@ -1024,13 +1027,13 @@
         <v>18</v>
       </c>
       <c r="B19" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="C19" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="C19" s="11" t="s">
+      <c r="D19" s="11" t="s">
         <v>55</v>
-      </c>
-      <c r="D19" s="11" t="s">
-        <v>56</v>
       </c>
       <c r="E19" s="12" t="s">
         <v>5</v>
@@ -1041,13 +1044,13 @@
         <v>19</v>
       </c>
       <c r="B20" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="C20" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="C20" s="11" t="s">
+      <c r="D20" s="11" t="s">
         <v>58</v>
-      </c>
-      <c r="D20" s="11" t="s">
-        <v>59</v>
       </c>
       <c r="E20" s="12" t="s">
         <v>5</v>
@@ -1058,15 +1061,17 @@
         <v>20</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="E21" s="12"/>
+        <v>61</v>
+      </c>
+      <c r="E21" s="12" t="s">
+        <v>5</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
